--- a/biology/Zoologie/Aplastodiscus_leucopygius/Aplastodiscus_leucopygius.xlsx
+++ b/biology/Zoologie/Aplastodiscus_leucopygius/Aplastodiscus_leucopygius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aplastodiscus leucopygius est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aplastodiscus leucopygius est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre entre 800 et 1 200 m d'altitude dans la Serra do Mar et la Serra da Mantiqueira dans les États de São Paulo, du Paraná, du Minas Gerais et de Rio de Janeiro, et au niveau de la mer à l'Ilha Grande[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre entre 800 et 1 200 m d'altitude dans la Serra do Mar et la Serra da Mantiqueira dans les États de São Paulo, du Paraná, du Minas Gerais et de Rio de Janeiro, et au niveau de la mer à l'Ilha Grande.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cruz &amp; Peixoto, 1985 "1984" : Especies verdes de Hyla: o complexo 'Albosignata' (Amphibia, Anura, Hylidae). Arquivos da Universidade Federal Rural do Rio de Janeiro, vol. 7, no 1, p. 31-47.</t>
         </is>
